--- a/content/dadesref/entitats/Idioma_Comunicacio.xlsx
+++ b/content/dadesref/entitats/Idioma_Comunicacio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\05.OIAD_Paquet_02\02.Idioma_comunicació\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\05.Idioma_comunicació\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3636CC0-A87C-4F1F-98E5-1024B4743CED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A3636CC0-A87C-4F1F-98E5-1024B4743CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE6BC8CD-D79A-4E23-8391-466852C4F0ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9AAF9F5B-2A3E-4EB7-9E37-F6CB3D83CC8F}"/>
+    <workbookView xWindow="730" yWindow="200" windowWidth="17280" windowHeight="9020" xr2:uid="{9AAF9F5B-2A3E-4EB7-9E37-F6CB3D83CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Idioma_Comunicacio" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Nom Taula:</t>
-  </si>
-  <si>
     <t>No consta</t>
   </si>
   <si>
@@ -48,15 +45,6 @@
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
@@ -78,7 +66,19 @@
     <t>Aranès</t>
   </si>
   <si>
-    <t>04</t>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Nom entitat:</t>
   </si>
 </sst>
 </file>
@@ -522,73 +522,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -598,202 +598,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A7 A8:A9" numberStoredAsText="1"/>
+    <ignoredError sqref="A8:A9" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E965CD-45AD-4C98-AE51-5646BB6491D7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C983CD-8BEA-4B61-AF4B-11AFC4EE609D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE16CC4-BFD6-4727-90BA-60BABE303DD4}"/>
 </file>